--- a/Data/Program/format-WIP-limit/Avg_WIP.xlsx
+++ b/Data/Program/format-WIP-limit/Avg_WIP.xlsx
@@ -518,10 +518,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K122"/>
+  <dimension ref="A1:M122"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H1" sqref="H1:H15"/>
+    <sheetView tabSelected="1" topLeftCell="A48" workbookViewId="0">
+      <selection activeCell="E73" sqref="E73"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -1048,82 +1048,86 @@
         <v>1.44</v>
       </c>
     </row>
-    <row r="17" spans="1:1">
+    <row r="17" spans="1:13">
       <c r="A17">
         <v>0.56000000000000005</v>
       </c>
     </row>
-    <row r="18" spans="1:1">
+    <row r="18" spans="1:13">
       <c r="A18">
         <v>0.85</v>
       </c>
     </row>
-    <row r="19" spans="1:1">
+    <row r="19" spans="1:13">
       <c r="A19">
         <v>1.28</v>
       </c>
     </row>
-    <row r="20" spans="1:1">
+    <row r="20" spans="1:13">
       <c r="A20">
         <v>1.21</v>
       </c>
     </row>
-    <row r="21" spans="1:1">
+    <row r="21" spans="1:13">
       <c r="A21">
         <v>1.78</v>
       </c>
-    </row>
-    <row r="22" spans="1:1">
+      <c r="M21">
+        <f>AVERAGE(B15:K15)</f>
+        <v>1.9027384615384615</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13">
       <c r="A22">
         <v>2.7</v>
       </c>
     </row>
-    <row r="23" spans="1:1">
+    <row r="23" spans="1:13">
       <c r="A23">
         <v>0.82</v>
       </c>
     </row>
-    <row r="24" spans="1:1">
+    <row r="24" spans="1:13">
       <c r="A24">
         <v>1.1100000000000001</v>
       </c>
     </row>
-    <row r="25" spans="1:1">
+    <row r="25" spans="1:13">
       <c r="A25">
         <v>4.03</v>
       </c>
     </row>
-    <row r="26" spans="1:1">
+    <row r="26" spans="1:13">
       <c r="A26">
         <v>7.97</v>
       </c>
     </row>
-    <row r="27" spans="1:1">
+    <row r="27" spans="1:13">
       <c r="A27">
         <v>0.78</v>
       </c>
     </row>
-    <row r="28" spans="1:1">
+    <row r="28" spans="1:13">
       <c r="A28">
         <v>0.87</v>
       </c>
     </row>
-    <row r="29" spans="1:1">
+    <row r="29" spans="1:13">
       <c r="A29">
         <v>1.9</v>
       </c>
     </row>
-    <row r="30" spans="1:1">
+    <row r="30" spans="1:13">
       <c r="A30">
         <v>1.72</v>
       </c>
     </row>
-    <row r="31" spans="1:1">
+    <row r="31" spans="1:13">
       <c r="A31">
         <v>1.63</v>
       </c>
     </row>
-    <row r="32" spans="1:1">
+    <row r="32" spans="1:13">
       <c r="A32">
         <v>1.73</v>
       </c>
